--- a/showcase/management/commands/statuses.xlsx
+++ b/showcase/management/commands/statuses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\project_activity_server\showcase\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFF75D7-F5DA-4120-835F-985B368F4E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A620E8-D33B-4F53-842C-DA7B78F6DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A947A1AB-9C1C-42CD-874B-84F54DDBFCC3}"/>
   </bookViews>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -148,6 +151,24 @@
   </si>
   <si>
     <t>rejected_cpds</t>
+  </si>
+  <si>
+    <t>await_cpds</t>
+  </si>
+  <si>
+    <t>Передана в ЦПДС</t>
+  </si>
+  <si>
+    <t>await_department</t>
+  </si>
+  <si>
+    <t>Передана на кафедру</t>
+  </si>
+  <si>
+    <t>await_institute</t>
+  </si>
+  <si>
+    <t>Передана в институт</t>
   </si>
 </sst>
 </file>
@@ -500,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E428F13-C294-47FD-9061-9F6A41793E22}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,6 +786,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/showcase/management/commands/statuses.xlsx
+++ b/showcase/management/commands/statuses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\project_activity_server\showcase\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A620E8-D33B-4F53-842C-DA7B78F6DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFF75D7-F5DA-4120-835F-985B368F4E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A947A1AB-9C1C-42CD-874B-84F54DDBFCC3}"/>
   </bookViews>
@@ -29,15 +29,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -151,24 +148,6 @@
   </si>
   <si>
     <t>rejected_cpds</t>
-  </si>
-  <si>
-    <t>await_cpds</t>
-  </si>
-  <si>
-    <t>Передана в ЦПДС</t>
-  </si>
-  <si>
-    <t>await_department</t>
-  </si>
-  <si>
-    <t>Передана на кафедру</t>
-  </si>
-  <si>
-    <t>await_institute</t>
-  </si>
-  <si>
-    <t>Передана в институт</t>
   </si>
 </sst>
 </file>
@@ -521,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E428F13-C294-47FD-9061-9F6A41793E22}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,48 +765,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19">
-        <v>31</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20">
-        <v>32</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/showcase/management/commands/statuses.xlsx
+++ b/showcase/management/commands/statuses.xlsx
@@ -1,37 +1,203 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\project_activity_server\showcase\management\commands\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D370398-3C65-4FE7-9475-5B4717EB8550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>Создана</t>
+  </si>
+  <si>
+    <t>work_department</t>
+  </si>
+  <si>
+    <t>Принята в работу кафедрой</t>
+  </si>
+  <si>
+    <t>approved_with_changes_department</t>
+  </si>
+  <si>
+    <t>Согласована кафедрой (с изменениями)</t>
+  </si>
+  <si>
+    <t>returned_department</t>
+  </si>
+  <si>
+    <t>Возвращена на доработку кафедрой</t>
+  </si>
+  <si>
+    <t>rejected_department</t>
+  </si>
+  <si>
+    <t>Отклонена кафедрой</t>
+  </si>
+  <si>
+    <t>work_institute</t>
+  </si>
+  <si>
+    <t>Принята в работу институтом</t>
+  </si>
+  <si>
+    <t>approved_with_changes_institute</t>
+  </si>
+  <si>
+    <t>Согласована институтом (с изменениями)</t>
+  </si>
+  <si>
+    <t>returned_institute</t>
+  </si>
+  <si>
+    <t>Возвращена на доработку институтом</t>
+  </si>
+  <si>
+    <t>rejected_institute</t>
+  </si>
+  <si>
+    <t>Отклонена институтом</t>
+  </si>
+  <si>
+    <t>work_cpds</t>
+  </si>
+  <si>
+    <t>Принята в работу ЦПДС</t>
+  </si>
+  <si>
+    <t>approved_cpds</t>
+  </si>
+  <si>
+    <t>Согласована ЦПДС</t>
+  </si>
+  <si>
+    <t>approved_with_changes_cpds</t>
+  </si>
+  <si>
+    <t>Согласована с изменениями ЦПДС</t>
+  </si>
+  <si>
+    <t>returned_cpds</t>
+  </si>
+  <si>
+    <t>Возвращена на доработку ЦПДС</t>
+  </si>
+  <si>
+    <t>rejected_cpds</t>
+  </si>
+  <si>
+    <t>Отклонена ЦПДС</t>
+  </si>
+  <si>
+    <t>approved_department</t>
+  </si>
+  <si>
+    <t>Одобрено подразделением</t>
+  </si>
+  <si>
+    <t>approved_institute</t>
+  </si>
+  <si>
+    <t>Одобрено институтом</t>
+  </si>
+  <si>
+    <t>await_cpds</t>
+  </si>
+  <si>
+    <t>Передана в ЦПДС</t>
+  </si>
+  <si>
+    <t>await_department</t>
+  </si>
+  <si>
+    <t>Передана на кафедру</t>
+  </si>
+  <si>
+    <t>await_institute</t>
+  </si>
+  <si>
+    <t>Передана в институт</t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>Согласована (итог)</t>
+  </si>
+  <si>
+    <t>rejected</t>
+  </si>
+  <si>
+    <t>Отклонена</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Не определен</t>
+  </si>
+  <si>
+    <t>require_assignment</t>
+  </si>
+  <si>
+    <t>Требует распределения</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +212,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,434 +536,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>position</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>is_active</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>created</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Создана</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>work_department</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Принята в работу кафедрой</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>approved_with_changes_department</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Согласована кафедрой (с изменениями)</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>returned_department</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Возвращена на доработку кафедрой</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>rejected_department</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Отклонена кафедрой</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>work_institute</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Принята в работу институтом</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>approved_with_changes_institute</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Согласована институтом (с изменениями)</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
         <v>9</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>returned_institute</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Возвращена на доработку институтом</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>rejected_institute</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Отклонена институтом</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>work_cpds</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Принята в работу ЦПДС</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>approved_cpds</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Согласована ЦПДС</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
         <v>13</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>approved_with_changes_cpds</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Согласована с изменениями ЦПДС</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
         <v>14</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>returned_cpds</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Возвращена на доработку ЦПДС</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>rejected_cpds</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Отклонена ЦПДС</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
         <v>16</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>approved_department</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Одобрено подразделением</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
         <v>25</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>approved_institute</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Одобрено институтом</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
         <v>26</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>await_cpds</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Передана в ЦПДС</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
         <v>31</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>await_department</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Передана на кафедру</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
         <v>32</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>await_institute</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Передана в институт</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
         <v>33</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Согласована (итог)</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>rejected</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Отклонена</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
         <v>41</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Не определен</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
         <v>99</v>
       </c>
       <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>88</v>
+      </c>
+      <c r="D24" t="b">
         <v>1</v>
       </c>
     </row>
